--- a/Check list_Yandex Samokat.xlsx
+++ b/Check list_Yandex Samokat.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizavetapravdina/Desktop/Testing/Яндекс.Практикум_проекты/Диплом/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizavetapravdina/Desktop/Для Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DCDA6-ACA9-9D42-BED1-76A07C148962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A967F38-A755-1B43-9593-A8DA31C96D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задание 2 данные валидации" sheetId="4" r:id="rId1"/>
-    <sheet name="Задание 3 тест-кейсы" sheetId="5" r:id="rId2"/>
-    <sheet name="Задание 4 чек-лист" sheetId="6" r:id="rId3"/>
+    <sheet name="Mindmap" sheetId="7" r:id="rId1"/>
+    <sheet name="Задание 2 данные валидации" sheetId="4" r:id="rId2"/>
+    <sheet name="Задание 3 тест-кейсы" sheetId="5" r:id="rId3"/>
+    <sheet name="Задание 4 чек-лист" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="410">
   <si>
     <t>Комментарий</t>
   </si>
@@ -1910,6 +1911,12 @@
   <si>
     <t>длинное значение: 123456789</t>
   </si>
+  <si>
+    <t>https://miro.com/app/board/uXjVOqfmgdI=/?share_link_id=266886782967</t>
+  </si>
+  <si>
+    <t>mindmap</t>
+  </si>
 </sst>
 </file>
 
@@ -1920,7 +1927,7 @@
     <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2146,6 +2153,21 @@
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2428,10 +2450,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2750,6 +2773,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2822,6 +2851,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2838,9 +2870,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2920,7 +2949,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3133,6 +3163,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452C1866-D379-FD44-8FBE-ECFF9A51D2B2}">
+  <dimension ref="A5:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="114" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{C22B3B57-A065-D345-BC27-60835A261938}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3156,17 +3216,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3261,15 +3321,15 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="17"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3292,28 +3352,28 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="141" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="118"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3335,16 +3395,16 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -3366,16 +3426,16 @@
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -3397,16 +3457,16 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -3428,16 +3488,16 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -3459,16 +3519,16 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3490,24 +3550,24 @@
       <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="115"/>
-      <c r="B11" s="142" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="141"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="118"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3529,16 +3589,16 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3560,16 +3620,16 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="115"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3591,26 +3651,26 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="115"/>
-      <c r="B14" s="142" t="s">
+      <c r="A14" s="117"/>
+      <c r="B14" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="146">
         <v>16</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="143" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="117" t="s">
+      <c r="G14" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="118"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3632,16 +3692,16 @@
       <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3663,16 +3723,16 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -3694,7 +3754,7 @@
       <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="115"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="20" t="s">
         <v>35</v>
       </c>
@@ -3729,7 +3789,7 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="115"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
@@ -3764,7 +3824,7 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="115"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="22" t="s">
         <v>39</v>
       </c>
@@ -3801,7 +3861,7 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="115"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
@@ -3836,7 +3896,7 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="115"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="22" t="s">
         <v>44</v>
       </c>
@@ -3871,7 +3931,7 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="115"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="22" t="s">
         <v>46</v>
       </c>
@@ -3906,7 +3966,7 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="115"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="22" t="s">
         <v>48</v>
       </c>
@@ -3941,7 +4001,7 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="22" t="s">
         <v>50</v>
       </c>
@@ -3976,7 +4036,7 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="115"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="22" t="s">
         <v>52</v>
       </c>
@@ -4011,7 +4071,7 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="115"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="28" t="s">
         <v>54</v>
       </c>
@@ -4046,15 +4106,15 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="115"/>
-      <c r="B27" s="121" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
       <c r="H27" s="29"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4077,7 +4137,7 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="116"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="30" t="s">
         <v>57</v>
       </c>
@@ -4112,28 +4172,28 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="141" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="118"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4155,16 +4215,16 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -4186,16 +4246,16 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="115"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
       <c r="E31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4217,16 +4277,16 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4248,16 +4308,16 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4279,16 +4339,16 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="115"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -4310,24 +4370,24 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="115"/>
-      <c r="B35" s="142" t="s">
+      <c r="A35" s="117"/>
+      <c r="B35" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="141"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="118"/>
+      <c r="H35" s="120"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -4349,16 +4409,16 @@
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4380,16 +4440,16 @@
       <c r="AA36" s="11"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="115"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4411,26 +4471,26 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="115"/>
-      <c r="B38" s="142" t="s">
+      <c r="A38" s="117"/>
+      <c r="B38" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="150">
+      <c r="C38" s="146">
         <v>16</v>
       </c>
-      <c r="D38" s="141" t="s">
+      <c r="D38" s="143" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="119" t="s">
+      <c r="G38" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="120" t="s">
+      <c r="H38" s="122" t="s">
         <v>69</v>
       </c>
       <c r="I38" s="2"/>
@@ -4454,16 +4514,16 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -4485,16 +4545,16 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -4516,7 +4576,7 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="115"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="20" t="s">
         <v>35</v>
       </c>
@@ -4551,7 +4611,7 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="115"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="22" t="s">
         <v>72</v>
       </c>
@@ -4588,7 +4648,7 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="115"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="22" t="s">
         <v>75</v>
       </c>
@@ -4623,7 +4683,7 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="115"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="22" t="s">
         <v>77</v>
       </c>
@@ -4658,7 +4718,7 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="115"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="22" t="s">
         <v>79</v>
       </c>
@@ -4693,7 +4753,7 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="115"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="22" t="s">
         <v>48</v>
       </c>
@@ -4728,7 +4788,7 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="115"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="22" t="s">
         <v>50</v>
       </c>
@@ -4763,7 +4823,7 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="115"/>
+      <c r="A48" s="117"/>
       <c r="B48" s="22" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +4858,7 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="115"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="28" t="s">
         <v>54</v>
       </c>
@@ -4833,15 +4893,15 @@
       <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="115"/>
-      <c r="B50" s="121" t="s">
+      <c r="A50" s="117"/>
+      <c r="B50" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="123"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="125"/>
       <c r="H50" s="29"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4864,7 +4924,7 @@
       <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="116"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="30" t="s">
         <v>84</v>
       </c>
@@ -4899,28 +4959,28 @@
       <c r="AA51" s="11"/>
     </row>
     <row r="52" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="144" t="s">
+      <c r="A52" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="139" t="s">
+      <c r="B52" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="141" t="s">
+      <c r="D52" s="143" t="s">
         <v>88</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="119" t="s">
+      <c r="G52" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="120" t="s">
+      <c r="H52" s="122" t="s">
         <v>91</v>
       </c>
       <c r="I52" s="2"/>
@@ -4944,16 +5004,16 @@
       <c r="AA52" s="11"/>
     </row>
     <row r="53" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="115"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4975,16 +5035,16 @@
       <c r="AA53" s="11"/>
     </row>
     <row r="54" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="115"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -5006,16 +5066,16 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="115"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="A55" s="117"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -5037,16 +5097,16 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="115"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -5068,16 +5128,16 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="115"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
       <c r="E57" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -5099,26 +5159,26 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="115"/>
-      <c r="B58" s="142" t="s">
+      <c r="A58" s="117"/>
+      <c r="B58" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="141" t="s">
+      <c r="C58" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="143" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="117" t="s">
+      <c r="G58" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="118"/>
+      <c r="H58" s="120"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5140,16 +5200,16 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="115"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5171,16 +5231,16 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="115"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5202,16 +5262,16 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="115"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5233,16 +5293,16 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="115"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="A62" s="117"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -5264,26 +5324,26 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="115"/>
-      <c r="B63" s="141" t="s">
+      <c r="A63" s="117"/>
+      <c r="B63" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="149">
+      <c r="C63" s="152">
         <v>51</v>
       </c>
-      <c r="D63" s="141" t="s">
+      <c r="D63" s="143" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="117" t="s">
+      <c r="G63" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="118"/>
+      <c r="H63" s="120"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -5305,16 +5365,16 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="115"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
       <c r="E64" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -5336,16 +5396,16 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
       <c r="E65" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -5367,17 +5427,17 @@
       <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="115"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="141" t="s">
+      <c r="C66" s="143" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="114"/>
+      <c r="E66" s="116"/>
       <c r="F66" s="23"/>
       <c r="G66" s="24" t="s">
         <v>3</v>
@@ -5404,15 +5464,15 @@
       <c r="AA66" s="11"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="115"/>
+      <c r="A67" s="117"/>
       <c r="B67" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="115"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="115"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="23"/>
       <c r="G67" s="24" t="s">
         <v>3</v>
@@ -5439,15 +5499,15 @@
       <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="115"/>
+      <c r="A68" s="117"/>
       <c r="B68" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="115"/>
+      <c r="C68" s="117"/>
       <c r="D68" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="115"/>
+      <c r="E68" s="117"/>
       <c r="F68" s="23"/>
       <c r="G68" s="24" t="s">
         <v>3</v>
@@ -5474,15 +5534,15 @@
       <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="115"/>
+      <c r="A69" s="117"/>
       <c r="B69" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="115"/>
+      <c r="C69" s="117"/>
       <c r="D69" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="115"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="23"/>
       <c r="G69" s="24" t="s">
         <v>3</v>
@@ -5509,15 +5569,15 @@
       <c r="AA69" s="11"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="115"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="115"/>
+      <c r="C70" s="117"/>
       <c r="D70" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="115"/>
+      <c r="E70" s="117"/>
       <c r="F70" s="23"/>
       <c r="G70" s="24" t="s">
         <v>3</v>
@@ -5544,15 +5604,15 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="115"/>
+      <c r="A71" s="117"/>
       <c r="B71" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="115"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E71" s="115"/>
+      <c r="E71" s="117"/>
       <c r="F71" s="23"/>
       <c r="G71" s="24" t="s">
         <v>3</v>
@@ -5579,15 +5639,15 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="115"/>
+      <c r="A72" s="117"/>
       <c r="B72" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="115"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="115"/>
+      <c r="E72" s="117"/>
       <c r="F72" s="23"/>
       <c r="G72" s="24" t="s">
         <v>3</v>
@@ -5614,15 +5674,15 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="115"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="115"/>
+      <c r="C73" s="117"/>
       <c r="D73" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="115"/>
+      <c r="E73" s="117"/>
       <c r="F73" s="23"/>
       <c r="G73" s="24" t="s">
         <v>3</v>
@@ -5649,15 +5709,15 @@
       <c r="AA73" s="11"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="115"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="115"/>
+      <c r="C74" s="117"/>
       <c r="D74" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="117"/>
       <c r="F74" s="23"/>
       <c r="G74" s="24" t="s">
         <v>3</v>
@@ -5684,15 +5744,15 @@
       <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="115"/>
+      <c r="A75" s="117"/>
       <c r="B75" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="115"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="115"/>
+      <c r="E75" s="117"/>
       <c r="F75" s="23"/>
       <c r="G75" s="24" t="s">
         <v>3</v>
@@ -5719,15 +5779,15 @@
       <c r="AA75" s="11"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="115"/>
+      <c r="A76" s="117"/>
       <c r="B76" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="115"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="115"/>
+      <c r="E76" s="117"/>
       <c r="F76" s="23"/>
       <c r="G76" s="24" t="s">
         <v>3</v>
@@ -5754,15 +5814,15 @@
       <c r="AA76" s="11"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="115"/>
+      <c r="A77" s="117"/>
       <c r="B77" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="116"/>
+      <c r="C77" s="118"/>
       <c r="D77" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="116"/>
+      <c r="E77" s="118"/>
       <c r="F77" s="23"/>
       <c r="G77" s="24" t="s">
         <v>3</v>
@@ -5789,15 +5849,15 @@
       <c r="AA77" s="11"/>
     </row>
     <row r="78" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="115"/>
-      <c r="B78" s="121" t="s">
+      <c r="A78" s="117"/>
+      <c r="B78" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="122"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="123"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="125"/>
       <c r="H78" s="29"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -5820,7 +5880,7 @@
       <c r="AA78" s="11"/>
     </row>
     <row r="79" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="116"/>
+      <c r="A79" s="118"/>
       <c r="B79" s="30" t="s">
         <v>129</v>
       </c>
@@ -5857,7 +5917,7 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="151" t="s">
+      <c r="A80" s="153" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="78" t="s">
@@ -5894,7 +5954,7 @@
       <c r="AA80" s="41"/>
     </row>
     <row r="81" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="115"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="78" t="s">
         <v>134</v>
       </c>
@@ -5929,16 +5989,16 @@
       <c r="AA81" s="41"/>
     </row>
     <row r="82" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="115"/>
-      <c r="B82" s="121" t="s">
+      <c r="A82" s="117"/>
+      <c r="B82" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="123"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="125"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5960,7 +6020,7 @@
       <c r="AA82" s="11"/>
     </row>
     <row r="83" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="115"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="30" t="s">
         <v>136</v>
       </c>
@@ -5995,7 +6055,7 @@
       <c r="AA83" s="11"/>
     </row>
     <row r="84" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="116"/>
+      <c r="A84" s="118"/>
       <c r="B84" s="30" t="s">
         <v>138</v>
       </c>
@@ -6030,28 +6090,28 @@
       <c r="AA84" s="11"/>
     </row>
     <row r="85" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="144" t="s">
+      <c r="A85" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="141" t="s">
+      <c r="B85" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="143" t="s">
+      <c r="C85" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="141" t="s">
+      <c r="D85" s="143" t="s">
         <v>142</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="114" t="s">
+      <c r="F85" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="124" t="s">
+      <c r="G85" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="125" t="s">
+      <c r="H85" s="127" t="s">
         <v>145</v>
       </c>
       <c r="I85" s="2"/>
@@ -6075,16 +6135,16 @@
       <c r="AA85" s="11"/>
     </row>
     <row r="86" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="115"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
       <c r="E86" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -6106,16 +6166,16 @@
       <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="115"/>
-      <c r="B87" s="115"/>
-      <c r="C87" s="115"/>
-      <c r="D87" s="115"/>
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
       <c r="E87" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F87" s="115"/>
-      <c r="G87" s="115"/>
-      <c r="H87" s="115"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="117"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -6137,16 +6197,16 @@
       <c r="AA87" s="11"/>
     </row>
     <row r="88" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="115"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="115"/>
-      <c r="D88" s="115"/>
+      <c r="A88" s="117"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
       <c r="E88" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F88" s="115"/>
-      <c r="G88" s="115"/>
-      <c r="H88" s="115"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="117"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -6168,16 +6228,16 @@
       <c r="AA88" s="11"/>
     </row>
     <row r="89" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="115"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="116"/>
-      <c r="D89" s="116"/>
+      <c r="A89" s="117"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
       <c r="E89" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="116"/>
-      <c r="G89" s="116"/>
-      <c r="H89" s="116"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -6199,26 +6259,26 @@
       <c r="AA89" s="11"/>
     </row>
     <row r="90" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="115"/>
-      <c r="B90" s="141" t="s">
+      <c r="A90" s="117"/>
+      <c r="B90" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="143" t="s">
+      <c r="C90" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="141" t="s">
+      <c r="D90" s="143" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="114" t="s">
+      <c r="F90" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="G90" s="117" t="s">
+      <c r="G90" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H90" s="118"/>
+      <c r="H90" s="120"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -6240,16 +6300,16 @@
       <c r="AA90" s="11"/>
     </row>
     <row r="91" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="115"/>
-      <c r="B91" s="115"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="115"/>
+      <c r="A91" s="117"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
       <c r="E91" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F91" s="115"/>
-      <c r="G91" s="115"/>
-      <c r="H91" s="115"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -6271,16 +6331,16 @@
       <c r="AA91" s="11"/>
     </row>
     <row r="92" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="115"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="117"/>
       <c r="E92" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F92" s="115"/>
-      <c r="G92" s="115"/>
-      <c r="H92" s="115"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="117"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -6302,16 +6362,16 @@
       <c r="AA92" s="11"/>
     </row>
     <row r="93" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="115"/>
-      <c r="B93" s="115"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
+      <c r="A93" s="117"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
       <c r="E93" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="F93" s="115"/>
-      <c r="G93" s="115"/>
-      <c r="H93" s="115"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -6333,16 +6393,16 @@
       <c r="AA93" s="11"/>
     </row>
     <row r="94" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="116"/>
-      <c r="D94" s="116"/>
+      <c r="A94" s="117"/>
+      <c r="B94" s="118"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="116"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="116"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="118"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -6364,26 +6424,26 @@
       <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="115"/>
-      <c r="B95" s="141" t="s">
+      <c r="A95" s="117"/>
+      <c r="B95" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="150">
+      <c r="C95" s="146">
         <v>13</v>
       </c>
-      <c r="D95" s="141" t="s">
+      <c r="D95" s="143" t="s">
         <v>158</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="F95" s="114" t="s">
+      <c r="F95" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="G95" s="124" t="s">
+      <c r="G95" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="120" t="s">
+      <c r="H95" s="122" t="s">
         <v>160</v>
       </c>
       <c r="I95" s="2"/>
@@ -6407,16 +6467,16 @@
       <c r="AA95" s="11"/>
     </row>
     <row r="96" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="115"/>
-      <c r="B96" s="115"/>
-      <c r="C96" s="115"/>
-      <c r="D96" s="115"/>
+      <c r="A96" s="117"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="117"/>
       <c r="E96" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F96" s="115"/>
-      <c r="G96" s="115"/>
-      <c r="H96" s="115"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="117"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -6438,16 +6498,16 @@
       <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="115"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
+      <c r="A97" s="117"/>
+      <c r="B97" s="118"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
       <c r="E97" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="116"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6469,7 +6529,7 @@
       <c r="AA97" s="11"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="115"/>
+      <c r="A98" s="117"/>
       <c r="B98" s="81" t="s">
         <v>163</v>
       </c>
@@ -6504,15 +6564,15 @@
       <c r="AA98" s="11"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="115"/>
+      <c r="A99" s="117"/>
       <c r="B99" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="141"/>
+      <c r="C99" s="143"/>
       <c r="D99" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E99" s="114"/>
+      <c r="E99" s="116"/>
       <c r="F99" s="23"/>
       <c r="G99" s="24" t="s">
         <v>3</v>
@@ -6539,15 +6599,15 @@
       <c r="AA99" s="11"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="115"/>
+      <c r="A100" s="117"/>
       <c r="B100" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C100" s="115"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E100" s="115"/>
+      <c r="E100" s="117"/>
       <c r="F100" s="23"/>
       <c r="G100" s="24" t="s">
         <v>3</v>
@@ -6574,15 +6634,15 @@
       <c r="AA100" s="11"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="115"/>
+      <c r="A101" s="117"/>
       <c r="B101" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C101" s="115"/>
+      <c r="C101" s="117"/>
       <c r="D101" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E101" s="115"/>
+      <c r="E101" s="117"/>
       <c r="F101" s="23"/>
       <c r="G101" s="24" t="s">
         <v>3</v>
@@ -6609,15 +6669,15 @@
       <c r="AA101" s="11"/>
     </row>
     <row r="102" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="115"/>
+      <c r="A102" s="117"/>
       <c r="B102" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="115"/>
+      <c r="C102" s="117"/>
       <c r="D102" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E102" s="115"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="23"/>
       <c r="G102" s="24" t="s">
         <v>3</v>
@@ -6644,15 +6704,15 @@
       <c r="AA102" s="11"/>
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="115"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C103" s="115"/>
+      <c r="C103" s="117"/>
       <c r="D103" s="44">
         <v>0</v>
       </c>
-      <c r="E103" s="115"/>
+      <c r="E103" s="117"/>
       <c r="F103" s="23"/>
       <c r="G103" s="24" t="s">
         <v>3</v>
@@ -6679,15 +6739,15 @@
       <c r="AA103" s="11"/>
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="115"/>
+      <c r="A104" s="117"/>
       <c r="B104" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="115"/>
+      <c r="C104" s="117"/>
       <c r="D104" s="44">
         <v>-79994567788</v>
       </c>
-      <c r="E104" s="115"/>
+      <c r="E104" s="117"/>
       <c r="F104" s="23"/>
       <c r="G104" s="24" t="s">
         <v>3</v>
@@ -6714,15 +6774,15 @@
       <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="115"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="115"/>
+      <c r="C105" s="117"/>
       <c r="D105" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E105" s="115"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="23"/>
       <c r="G105" s="24" t="s">
         <v>3</v>
@@ -6749,15 +6809,15 @@
       <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="115"/>
+      <c r="A106" s="117"/>
       <c r="B106" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="115"/>
+      <c r="C106" s="117"/>
       <c r="D106" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E106" s="115"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="23"/>
       <c r="G106" s="24" t="s">
         <v>3</v>
@@ -6784,15 +6844,15 @@
       <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="115"/>
+      <c r="A107" s="117"/>
       <c r="B107" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C107" s="115"/>
+      <c r="C107" s="117"/>
       <c r="D107" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E107" s="115"/>
+      <c r="E107" s="117"/>
       <c r="F107" s="23"/>
       <c r="G107" s="24" t="s">
         <v>3</v>
@@ -6819,15 +6879,15 @@
       <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="115"/>
+      <c r="A108" s="117"/>
       <c r="B108" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="116"/>
+      <c r="C108" s="118"/>
       <c r="D108" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E108" s="116"/>
+      <c r="E108" s="118"/>
       <c r="F108" s="23"/>
       <c r="G108" s="24" t="s">
         <v>3</v>
@@ -6854,15 +6914,15 @@
       <c r="AA108" s="11"/>
     </row>
     <row r="109" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="115"/>
-      <c r="B109" s="121" t="s">
+      <c r="A109" s="117"/>
+      <c r="B109" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="123"/>
+      <c r="C109" s="124"/>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="124"/>
+      <c r="G109" s="125"/>
       <c r="H109" s="29"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -6885,7 +6945,7 @@
       <c r="AA109" s="11"/>
     </row>
     <row r="110" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="116"/>
+      <c r="A110" s="118"/>
       <c r="B110" s="45" t="s">
         <v>180</v>
       </c>
@@ -6920,7 +6980,7 @@
       <c r="AA110" s="11"/>
     </row>
     <row r="111" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="145" t="s">
+      <c r="A111" s="148" t="s">
         <v>181</v>
       </c>
       <c r="B111" s="47" t="s">
@@ -6955,7 +7015,7 @@
       <c r="AA111" s="11"/>
     </row>
     <row r="112" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="116"/>
+      <c r="A112" s="118"/>
       <c r="B112" s="47" t="s">
         <v>183</v>
       </c>
@@ -6988,16 +7048,16 @@
       <c r="AA112" s="11"/>
     </row>
     <row r="113" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="130" t="s">
+      <c r="A113" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="131"/>
-      <c r="C113" s="131"/>
-      <c r="D113" s="131"/>
-      <c r="E113" s="131"/>
-      <c r="F113" s="131"/>
-      <c r="G113" s="131"/>
-      <c r="H113" s="132"/>
+      <c r="B113" s="133"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="133"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="133"/>
+      <c r="G113" s="133"/>
+      <c r="H113" s="134"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -7019,7 +7079,7 @@
       <c r="AA113" s="11"/>
     </row>
     <row r="114" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="144" t="s">
+      <c r="A114" s="147" t="s">
         <v>185</v>
       </c>
       <c r="B114" s="84" t="s">
@@ -7062,7 +7122,7 @@
       <c r="AA114" s="11"/>
     </row>
     <row r="115" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="115"/>
+      <c r="A115" s="117"/>
       <c r="B115" s="84" t="s">
         <v>189</v>
       </c>
@@ -7105,7 +7165,7 @@
       <c r="AA115" s="11"/>
     </row>
     <row r="116" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="115"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="84" t="s">
         <v>193</v>
       </c>
@@ -7140,7 +7200,7 @@
       <c r="AA116" s="11"/>
     </row>
     <row r="117" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="115"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="84" t="s">
         <v>194</v>
       </c>
@@ -7177,7 +7237,7 @@
       <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="115"/>
+      <c r="A118" s="117"/>
       <c r="B118" s="30" t="s">
         <v>195</v>
       </c>
@@ -7214,7 +7274,7 @@
       <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="115"/>
+      <c r="A119" s="117"/>
       <c r="B119" s="30" t="s">
         <v>197</v>
       </c>
@@ -7247,15 +7307,15 @@
       <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="115"/>
-      <c r="B120" s="121" t="s">
+      <c r="A120" s="117"/>
+      <c r="B120" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="123"/>
+      <c r="C120" s="124"/>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="124"/>
+      <c r="G120" s="125"/>
       <c r="H120" s="29"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -7278,7 +7338,7 @@
       <c r="AA120" s="11"/>
     </row>
     <row r="121" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="115"/>
+      <c r="A121" s="117"/>
       <c r="B121" s="30" t="s">
         <v>136</v>
       </c>
@@ -7313,7 +7373,7 @@
       <c r="AA121" s="11"/>
     </row>
     <row r="122" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="116"/>
+      <c r="A122" s="118"/>
       <c r="B122" s="30" t="s">
         <v>199</v>
       </c>
@@ -7350,7 +7410,7 @@
       <c r="AA122" s="11"/>
     </row>
     <row r="123" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="144" t="s">
+      <c r="A123" s="147" t="s">
         <v>201</v>
       </c>
       <c r="B123" s="30" t="s">
@@ -7387,15 +7447,15 @@
       <c r="AA123" s="11"/>
     </row>
     <row r="124" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="115"/>
-      <c r="B124" s="121" t="s">
+      <c r="A124" s="117"/>
+      <c r="B124" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="123"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+      <c r="F124" s="124"/>
+      <c r="G124" s="125"/>
       <c r="H124" s="29"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -7418,7 +7478,7 @@
       <c r="AA124" s="11"/>
     </row>
     <row r="125" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="115"/>
+      <c r="A125" s="117"/>
       <c r="B125" s="30" t="s">
         <v>136</v>
       </c>
@@ -7453,7 +7513,7 @@
       <c r="AA125" s="11"/>
     </row>
     <row r="126" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="116"/>
+      <c r="A126" s="118"/>
       <c r="B126" s="30" t="s">
         <v>204</v>
       </c>
@@ -7490,17 +7550,17 @@
       <c r="AA126" s="11"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="144" t="s">
+      <c r="A127" s="147" t="s">
         <v>205</v>
       </c>
-      <c r="B127" s="121" t="s">
+      <c r="B127" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="122"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
-      <c r="G127" s="123"/>
+      <c r="C127" s="124"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
+      <c r="G127" s="125"/>
       <c r="H127" s="29"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -7523,7 +7583,7 @@
       <c r="AA127" s="11"/>
     </row>
     <row r="128" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="115"/>
+      <c r="A128" s="117"/>
       <c r="B128" s="30" t="s">
         <v>206</v>
       </c>
@@ -7558,7 +7618,7 @@
       <c r="AA128" s="11"/>
     </row>
     <row r="129" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="115"/>
+      <c r="A129" s="117"/>
       <c r="B129" s="30" t="s">
         <v>208</v>
       </c>
@@ -7593,7 +7653,7 @@
       <c r="AA129" s="11"/>
     </row>
     <row r="130" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="116"/>
+      <c r="A130" s="118"/>
       <c r="B130" s="30" t="s">
         <v>210</v>
       </c>
@@ -7628,28 +7688,28 @@
       <c r="AA130" s="11"/>
     </row>
     <row r="131" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="144" t="s">
+      <c r="A131" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="146" t="s">
+      <c r="B131" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="C131" s="147" t="s">
+      <c r="C131" s="150" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="147" t="s">
+      <c r="D131" s="150" t="s">
         <v>213</v>
       </c>
       <c r="E131" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="F131" s="126" t="s">
+      <c r="F131" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="G131" s="117" t="s">
+      <c r="G131" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="H131" s="133"/>
+      <c r="H131" s="135"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -7671,16 +7731,16 @@
       <c r="AA131" s="11"/>
     </row>
     <row r="132" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="115"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="115"/>
-      <c r="D132" s="115"/>
+      <c r="A132" s="117"/>
+      <c r="B132" s="117"/>
+      <c r="C132" s="117"/>
+      <c r="D132" s="117"/>
       <c r="E132" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="115"/>
-      <c r="G132" s="115"/>
-      <c r="H132" s="115"/>
+      <c r="F132" s="117"/>
+      <c r="G132" s="117"/>
+      <c r="H132" s="117"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -7702,16 +7762,16 @@
       <c r="AA132" s="11"/>
     </row>
     <row r="133" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="115"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="115"/>
-      <c r="D133" s="115"/>
+      <c r="A133" s="117"/>
+      <c r="B133" s="117"/>
+      <c r="C133" s="117"/>
+      <c r="D133" s="117"/>
       <c r="E133" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F133" s="115"/>
-      <c r="G133" s="115"/>
-      <c r="H133" s="115"/>
+      <c r="F133" s="117"/>
+      <c r="G133" s="117"/>
+      <c r="H133" s="117"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -7733,16 +7793,16 @@
       <c r="AA133" s="11"/>
     </row>
     <row r="134" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="115"/>
-      <c r="B134" s="115"/>
-      <c r="C134" s="115"/>
-      <c r="D134" s="115"/>
+      <c r="A134" s="117"/>
+      <c r="B134" s="117"/>
+      <c r="C134" s="117"/>
+      <c r="D134" s="117"/>
       <c r="E134" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F134" s="115"/>
-      <c r="G134" s="115"/>
-      <c r="H134" s="115"/>
+      <c r="F134" s="117"/>
+      <c r="G134" s="117"/>
+      <c r="H134" s="117"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -7764,16 +7824,16 @@
       <c r="AA134" s="11"/>
     </row>
     <row r="135" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="115"/>
-      <c r="B135" s="116"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116"/>
+      <c r="A135" s="117"/>
+      <c r="B135" s="118"/>
+      <c r="C135" s="118"/>
+      <c r="D135" s="118"/>
       <c r="E135" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="F135" s="116"/>
-      <c r="G135" s="116"/>
-      <c r="H135" s="116"/>
+      <c r="F135" s="118"/>
+      <c r="G135" s="118"/>
+      <c r="H135" s="118"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -7795,26 +7855,26 @@
       <c r="AA135" s="11"/>
     </row>
     <row r="136" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="115"/>
-      <c r="B136" s="147" t="s">
+      <c r="A136" s="117"/>
+      <c r="B136" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="C136" s="148">
+      <c r="C136" s="151">
         <v>25</v>
       </c>
-      <c r="D136" s="147" t="s">
+      <c r="D136" s="150" t="s">
         <v>220</v>
       </c>
       <c r="E136" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F136" s="126" t="s">
+      <c r="F136" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="G136" s="124" t="s">
+      <c r="G136" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H136" s="127" t="s">
+      <c r="H136" s="129" t="s">
         <v>222</v>
       </c>
       <c r="I136" s="2"/>
@@ -7838,16 +7898,16 @@
       <c r="AA136" s="11"/>
     </row>
     <row r="137" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="115"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="115"/>
+      <c r="A137" s="117"/>
+      <c r="B137" s="117"/>
+      <c r="C137" s="117"/>
+      <c r="D137" s="117"/>
       <c r="E137" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="F137" s="115"/>
-      <c r="G137" s="115"/>
-      <c r="H137" s="115"/>
+      <c r="F137" s="117"/>
+      <c r="G137" s="117"/>
+      <c r="H137" s="117"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -7869,16 +7929,16 @@
       <c r="AA137" s="11"/>
     </row>
     <row r="138" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="115"/>
-      <c r="B138" s="116"/>
-      <c r="C138" s="116"/>
-      <c r="D138" s="116"/>
+      <c r="A138" s="117"/>
+      <c r="B138" s="118"/>
+      <c r="C138" s="118"/>
+      <c r="D138" s="118"/>
       <c r="E138" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F138" s="116"/>
-      <c r="G138" s="116"/>
-      <c r="H138" s="116"/>
+      <c r="F138" s="118"/>
+      <c r="G138" s="118"/>
+      <c r="H138" s="118"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -7900,7 +7960,7 @@
       <c r="AA138" s="11"/>
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="115"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="22" t="s">
         <v>107</v>
       </c>
@@ -7935,7 +7995,7 @@
       <c r="AA139" s="11"/>
     </row>
     <row r="140" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="115"/>
+      <c r="A140" s="117"/>
       <c r="B140" s="22" t="s">
         <v>225</v>
       </c>
@@ -7970,7 +8030,7 @@
       <c r="AA140" s="11"/>
     </row>
     <row r="141" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="115"/>
+      <c r="A141" s="117"/>
       <c r="B141" s="22" t="s">
         <v>227</v>
       </c>
@@ -8005,7 +8065,7 @@
       <c r="AA141" s="11"/>
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="115"/>
+      <c r="A142" s="117"/>
       <c r="B142" s="22" t="s">
         <v>229</v>
       </c>
@@ -8042,7 +8102,7 @@
       <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="115"/>
+      <c r="A143" s="117"/>
       <c r="B143" s="22" t="s">
         <v>230</v>
       </c>
@@ -8077,7 +8137,7 @@
       <c r="AA143" s="11"/>
     </row>
     <row r="144" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="115"/>
+      <c r="A144" s="117"/>
       <c r="B144" s="22" t="s">
         <v>232</v>
       </c>
@@ -8112,7 +8172,7 @@
       <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="115"/>
+      <c r="A145" s="117"/>
       <c r="B145" s="19" t="s">
         <v>48</v>
       </c>
@@ -8125,7 +8185,7 @@
       <c r="G145" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H145" s="127" t="s">
+      <c r="H145" s="129" t="s">
         <v>235</v>
       </c>
       <c r="I145" s="2"/>
@@ -8149,7 +8209,7 @@
       <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="115"/>
+      <c r="A146" s="117"/>
       <c r="B146" s="19" t="s">
         <v>126</v>
       </c>
@@ -8162,7 +8222,7 @@
       <c r="G146" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H146" s="116"/>
+      <c r="H146" s="118"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -8184,7 +8244,7 @@
       <c r="AA146" s="11"/>
     </row>
     <row r="147" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="115"/>
+      <c r="A147" s="117"/>
       <c r="B147" s="53" t="s">
         <v>237</v>
       </c>
@@ -8217,15 +8277,15 @@
       <c r="AA147" s="11"/>
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="115"/>
-      <c r="B148" s="121" t="s">
+      <c r="A148" s="117"/>
+      <c r="B148" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C148" s="122"/>
-      <c r="D148" s="122"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
-      <c r="G148" s="123"/>
+      <c r="C148" s="124"/>
+      <c r="D148" s="124"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="124"/>
+      <c r="G148" s="125"/>
       <c r="H148" s="29"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -8248,7 +8308,7 @@
       <c r="AA148" s="11"/>
     </row>
     <row r="149" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="115"/>
+      <c r="A149" s="117"/>
       <c r="B149" s="30" t="s">
         <v>238</v>
       </c>
@@ -8283,7 +8343,7 @@
       <c r="AA149" s="11"/>
     </row>
     <row r="150" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="116"/>
+      <c r="A150" s="118"/>
       <c r="B150" s="30" t="s">
         <v>239</v>
       </c>
@@ -8316,7 +8376,7 @@
       <c r="AA150" s="11"/>
     </row>
     <row r="151" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="145" t="s">
+      <c r="A151" s="148" t="s">
         <v>181</v>
       </c>
       <c r="B151" s="47" t="s">
@@ -8351,7 +8411,7 @@
       <c r="AA151" s="11"/>
     </row>
     <row r="152" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="116"/>
+      <c r="A152" s="118"/>
       <c r="B152" s="47" t="s">
         <v>241</v>
       </c>
@@ -8442,14 +8502,14 @@
       <c r="AA154" s="11"/>
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="128" t="s">
+      <c r="A155" s="130" t="s">
         <v>242</v>
       </c>
-      <c r="B155" s="129"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="129"/>
-      <c r="E155" s="129"/>
-      <c r="F155" s="129"/>
+      <c r="B155" s="131"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="131"/>
+      <c r="E155" s="131"/>
+      <c r="F155" s="131"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="2"/>
@@ -9064,12 +9124,12 @@
       <c r="AA170" s="11"/>
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="128" t="s">
+      <c r="A171" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="B171" s="129"/>
-      <c r="C171" s="129"/>
-      <c r="D171" s="129"/>
+      <c r="B171" s="131"/>
+      <c r="C171" s="131"/>
+      <c r="D171" s="131"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="1"/>
@@ -33644,7 +33704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33668,17 +33728,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="65"/>
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
@@ -33769,13 +33829,13 @@
       <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="153">
+      <c r="A4" s="155">
         <v>1</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="154" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D4" s="69">
@@ -33784,16 +33844,16 @@
       <c r="E4" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="154" t="s">
         <v>268</v>
       </c>
       <c r="J4" s="3"/>
@@ -33814,19 +33874,19 @@
       <c r="Y4" s="66"/>
     </row>
     <row r="5" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="69">
         <v>2</v>
       </c>
       <c r="E5" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
       <c r="J5" s="3"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33845,19 +33905,19 @@
       <c r="Y5" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="69">
         <v>3</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="3"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -33876,19 +33936,19 @@
       <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="69">
         <v>4</v>
       </c>
       <c r="E7" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
       <c r="J7" s="3"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33907,13 +33967,13 @@
       <c r="Y7" s="66"/>
     </row>
     <row r="8" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="153">
+      <c r="A8" s="155">
         <v>2</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="154" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D8" s="69">
@@ -33922,16 +33982,16 @@
       <c r="E8" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="152" t="s">
+      <c r="F8" s="154" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="152" t="s">
+      <c r="I8" s="154" t="s">
         <v>268</v>
       </c>
       <c r="J8" s="66"/>
@@ -33952,19 +34012,19 @@
       <c r="Y8" s="66"/>
     </row>
     <row r="9" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="69">
         <v>2</v>
       </c>
       <c r="E9" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33983,19 +34043,19 @@
       <c r="Y9" s="66"/>
     </row>
     <row r="10" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="69">
         <v>3</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
@@ -34014,19 +34074,19 @@
       <c r="Y10" s="66"/>
     </row>
     <row r="11" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="69">
         <v>4</v>
       </c>
       <c r="E11" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
@@ -34045,13 +34105,13 @@
       <c r="Y11" s="66"/>
     </row>
     <row r="12" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="153">
+      <c r="A12" s="155">
         <v>3</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="154" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D12" s="69">
@@ -34060,16 +34120,16 @@
       <c r="E12" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="154" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="156" t="s">
+      <c r="G12" s="158" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="152" t="s">
+      <c r="I12" s="154" t="s">
         <v>268</v>
       </c>
       <c r="J12" s="66"/>
@@ -34090,19 +34150,19 @@
       <c r="Y12" s="66"/>
     </row>
     <row r="13" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="69">
         <v>2</v>
       </c>
       <c r="E13" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="66"/>
@@ -34121,19 +34181,19 @@
       <c r="Y13" s="66"/>
     </row>
     <row r="14" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="69">
         <v>3</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
@@ -34152,19 +34212,19 @@
       <c r="Y14" s="66"/>
     </row>
     <row r="15" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="69">
         <v>4</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="116"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
@@ -34183,13 +34243,13 @@
       <c r="Y15" s="66"/>
     </row>
     <row r="16" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="153">
+      <c r="A16" s="155">
         <v>4</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D16" s="73">
@@ -34198,16 +34258,16 @@
       <c r="E16" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="152" t="s">
+      <c r="F16" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="157"/>
+      <c r="I16" s="159"/>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
@@ -34226,19 +34286,19 @@
       <c r="Y16" s="66"/>
     </row>
     <row r="17" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="73">
         <v>2</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
@@ -34257,19 +34317,19 @@
       <c r="Y17" s="66"/>
     </row>
     <row r="18" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="73">
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
@@ -34288,19 +34348,19 @@
       <c r="Y18" s="66"/>
     </row>
     <row r="19" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="73">
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="66"/>
@@ -34319,19 +34379,19 @@
       <c r="Y19" s="66"/>
     </row>
     <row r="20" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="73">
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
@@ -34350,13 +34410,13 @@
       <c r="Y20" s="66"/>
     </row>
     <row r="21" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="153">
+      <c r="A21" s="155">
         <v>5</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="154" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="73">
@@ -34365,16 +34425,16 @@
       <c r="E21" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="158" t="s">
+      <c r="H21" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="157"/>
+      <c r="I21" s="159"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
@@ -34393,19 +34453,19 @@
       <c r="Y21" s="66"/>
     </row>
     <row r="22" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="73">
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
       <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
@@ -34424,19 +34484,19 @@
       <c r="Y22" s="66"/>
     </row>
     <row r="23" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="73">
         <v>3</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
       <c r="L23" s="66"/>
@@ -34455,19 +34515,19 @@
       <c r="Y23" s="66"/>
     </row>
     <row r="24" spans="1:25" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="73">
         <v>4</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
       <c r="L24" s="66"/>
@@ -34486,19 +34546,19 @@
       <c r="Y24" s="66"/>
     </row>
     <row r="25" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="73">
         <v>5</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
@@ -34517,13 +34577,13 @@
       <c r="Y25" s="66"/>
     </row>
     <row r="26" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="153">
+      <c r="A26" s="155">
         <v>6</v>
       </c>
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="154" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D26" s="73">
@@ -34532,16 +34592,16 @@
       <c r="E26" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="161" t="s">
+      <c r="F26" s="163" t="s">
         <v>282</v>
       </c>
-      <c r="G26" s="154" t="s">
+      <c r="G26" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="152" t="s">
+      <c r="I26" s="154" t="s">
         <v>283</v>
       </c>
       <c r="J26" s="66"/>
@@ -34562,19 +34622,19 @@
       <c r="Y26" s="66"/>
     </row>
     <row r="27" spans="1:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="115"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="73">
         <v>2</v>
       </c>
       <c r="E27" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
       <c r="L27" s="66"/>
@@ -34593,19 +34653,19 @@
       <c r="Y27" s="66"/>
     </row>
     <row r="28" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="115"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="73">
         <v>3</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
       <c r="J28" s="66"/>
       <c r="K28" s="66"/>
       <c r="L28" s="66"/>
@@ -34624,19 +34684,19 @@
       <c r="Y28" s="66"/>
     </row>
     <row r="29" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="115"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="73">
         <v>4</v>
       </c>
       <c r="E29" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="162"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
       <c r="J29" s="66"/>
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
@@ -34655,19 +34715,19 @@
       <c r="Y29" s="66"/>
     </row>
     <row r="30" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="73">
         <v>5</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="132"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
       <c r="J30" s="66"/>
       <c r="K30" s="66"/>
       <c r="L30" s="66"/>
@@ -34686,13 +34746,13 @@
       <c r="Y30" s="66"/>
     </row>
     <row r="31" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="153">
+      <c r="A31" s="155">
         <v>7</v>
       </c>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="154" t="s">
+      <c r="C31" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D31" s="73">
@@ -34701,16 +34761,16 @@
       <c r="E31" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="162" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="154" t="s">
+      <c r="G31" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H31" s="158" t="s">
+      <c r="H31" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="157"/>
+      <c r="I31" s="159"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
@@ -34729,19 +34789,19 @@
       <c r="Y31" s="66"/>
     </row>
     <row r="32" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="73">
         <v>2</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
@@ -34760,19 +34820,19 @@
       <c r="Y32" s="66"/>
     </row>
     <row r="33" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="73">
         <v>3</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="66"/>
@@ -34791,19 +34851,19 @@
       <c r="Y33" s="66"/>
     </row>
     <row r="34" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="73">
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="66"/>
       <c r="K34" s="66"/>
       <c r="L34" s="66"/>
@@ -34822,19 +34882,19 @@
       <c r="Y34" s="66"/>
     </row>
     <row r="35" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="73">
         <v>5</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
       <c r="J35" s="66"/>
       <c r="K35" s="66"/>
       <c r="L35" s="66"/>
@@ -34853,13 +34913,13 @@
       <c r="Y35" s="66"/>
     </row>
     <row r="36" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="153">
+      <c r="A36" s="155">
         <v>8</v>
       </c>
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="154" t="s">
         <v>287</v>
       </c>
-      <c r="C36" s="154" t="s">
+      <c r="C36" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D36" s="73">
@@ -34868,16 +34928,16 @@
       <c r="E36" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="152" t="s">
+      <c r="F36" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H36" s="158" t="s">
+      <c r="H36" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="157"/>
+      <c r="I36" s="159"/>
       <c r="J36" s="66"/>
       <c r="K36" s="66"/>
       <c r="L36" s="66"/>
@@ -34896,19 +34956,19 @@
       <c r="Y36" s="66"/>
     </row>
     <row r="37" spans="1:25" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="73">
         <v>2</v>
       </c>
       <c r="E37" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="66"/>
       <c r="K37" s="66"/>
       <c r="L37" s="66"/>
@@ -34927,19 +34987,19 @@
       <c r="Y37" s="66"/>
     </row>
     <row r="38" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="73">
         <v>3</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="66"/>
       <c r="K38" s="66"/>
       <c r="L38" s="66"/>
@@ -34958,19 +35018,19 @@
       <c r="Y38" s="66"/>
     </row>
     <row r="39" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="73">
         <v>4</v>
       </c>
       <c r="E39" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="66"/>
       <c r="K39" s="66"/>
       <c r="L39" s="66"/>
@@ -34989,19 +35049,19 @@
       <c r="Y39" s="66"/>
     </row>
     <row r="40" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="73">
         <v>5</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
       <c r="J40" s="66"/>
       <c r="K40" s="66"/>
       <c r="L40" s="66"/>
@@ -35020,13 +35080,13 @@
       <c r="Y40" s="66"/>
     </row>
     <row r="41" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="153">
+      <c r="A41" s="155">
         <v>9</v>
       </c>
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="154" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D41" s="73">
@@ -35035,16 +35095,16 @@
       <c r="E41" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="152" t="s">
+      <c r="F41" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G41" s="154" t="s">
+      <c r="G41" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H41" s="158" t="s">
+      <c r="H41" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="157"/>
+      <c r="I41" s="159"/>
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="66"/>
@@ -35063,19 +35123,19 @@
       <c r="Y41" s="66"/>
     </row>
     <row r="42" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="73">
         <v>2</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
       <c r="L42" s="66"/>
@@ -35094,19 +35154,19 @@
       <c r="Y42" s="66"/>
     </row>
     <row r="43" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
       <c r="D43" s="73">
         <v>3</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="J43" s="66"/>
       <c r="K43" s="66"/>
       <c r="L43" s="66"/>
@@ -35125,19 +35185,19 @@
       <c r="Y43" s="66"/>
     </row>
     <row r="44" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
       <c r="D44" s="73">
         <v>4</v>
       </c>
       <c r="E44" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
       <c r="J44" s="66"/>
       <c r="K44" s="66"/>
       <c r="L44" s="66"/>
@@ -35156,19 +35216,19 @@
       <c r="Y44" s="66"/>
     </row>
     <row r="45" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
+      <c r="A45" s="118"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="73">
         <v>5</v>
       </c>
       <c r="E45" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
       <c r="J45" s="66"/>
       <c r="K45" s="66"/>
       <c r="L45" s="66"/>
@@ -35187,13 +35247,13 @@
       <c r="Y45" s="66"/>
     </row>
     <row r="46" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="153">
+      <c r="A46" s="155">
         <v>10</v>
       </c>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D46" s="73">
@@ -35202,16 +35262,16 @@
       <c r="E46" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F46" s="152" t="s">
+      <c r="F46" s="154" t="s">
         <v>266</v>
       </c>
-      <c r="G46" s="154" t="s">
+      <c r="G46" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H46" s="158" t="s">
+      <c r="H46" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="157"/>
+      <c r="I46" s="159"/>
       <c r="J46" s="66"/>
       <c r="K46" s="66"/>
       <c r="L46" s="66"/>
@@ -35230,19 +35290,19 @@
       <c r="Y46" s="66"/>
     </row>
     <row r="47" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="73">
         <v>2</v>
       </c>
       <c r="E47" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
       <c r="J47" s="66"/>
       <c r="K47" s="66"/>
       <c r="L47" s="66"/>
@@ -35261,19 +35321,19 @@
       <c r="Y47" s="66"/>
     </row>
     <row r="48" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="115"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="73">
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
       <c r="L48" s="66"/>
@@ -35292,19 +35352,19 @@
       <c r="Y48" s="66"/>
     </row>
     <row r="49" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="115"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
       <c r="D49" s="73">
         <v>4</v>
       </c>
       <c r="E49" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
       <c r="J49" s="66"/>
       <c r="K49" s="66"/>
       <c r="L49" s="66"/>
@@ -35323,19 +35383,19 @@
       <c r="Y49" s="66"/>
     </row>
     <row r="50" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="116"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="73">
         <v>5</v>
       </c>
       <c r="E50" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
       <c r="J50" s="66"/>
       <c r="K50" s="66"/>
       <c r="L50" s="66"/>
@@ -35354,13 +35414,13 @@
       <c r="Y50" s="66"/>
     </row>
     <row r="51" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="153">
+      <c r="A51" s="155">
         <v>11</v>
       </c>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="C51" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="73">
@@ -35369,16 +35429,16 @@
       <c r="E51" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="F51" s="152" t="s">
+      <c r="F51" s="154" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="154" t="s">
+      <c r="G51" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H51" s="155" t="s">
+      <c r="H51" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="152" t="s">
+      <c r="I51" s="154" t="s">
         <v>295</v>
       </c>
       <c r="J51" s="66"/>
@@ -35399,19 +35459,19 @@
       <c r="Y51" s="66"/>
     </row>
     <row r="52" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="115"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
+      <c r="A52" s="117"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="73">
         <v>2</v>
       </c>
       <c r="E52" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
       <c r="J52" s="66"/>
       <c r="K52" s="66"/>
       <c r="L52" s="66"/>
@@ -35430,19 +35490,19 @@
       <c r="Y52" s="66"/>
     </row>
     <row r="53" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="115"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="73">
         <v>3</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
       <c r="J53" s="66"/>
       <c r="K53" s="66"/>
       <c r="L53" s="66"/>
@@ -35461,19 +35521,19 @@
       <c r="Y53" s="66"/>
     </row>
     <row r="54" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="73">
         <v>4</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
       <c r="J54" s="66"/>
       <c r="K54" s="66"/>
       <c r="L54" s="66"/>
@@ -35492,13 +35552,13 @@
       <c r="Y54" s="66"/>
     </row>
     <row r="55" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="153">
+      <c r="A55" s="155">
         <v>12</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="154" t="s">
+      <c r="C55" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D55" s="73">
@@ -35507,16 +35567,16 @@
       <c r="E55" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="F55" s="152" t="s">
+      <c r="F55" s="154" t="s">
         <v>298</v>
       </c>
-      <c r="G55" s="154" t="s">
+      <c r="G55" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H55" s="158" t="s">
+      <c r="H55" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="I55" s="163" t="s">
+      <c r="I55" s="165" t="s">
         <v>300</v>
       </c>
       <c r="J55" s="66"/>
@@ -35537,19 +35597,19 @@
       <c r="Y55" s="66"/>
     </row>
     <row r="56" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="115"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
+      <c r="A56" s="117"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="73">
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
       <c r="J56" s="66"/>
       <c r="K56" s="66"/>
       <c r="L56" s="66"/>
@@ -35568,19 +35628,19 @@
       <c r="Y56" s="66"/>
     </row>
     <row r="57" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="115"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="73">
         <v>3</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
       <c r="J57" s="66"/>
       <c r="K57" s="66"/>
       <c r="L57" s="66"/>
@@ -35599,19 +35659,19 @@
       <c r="Y57" s="66"/>
     </row>
     <row r="58" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="73">
         <v>4</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
       <c r="J58" s="66"/>
       <c r="K58" s="66"/>
       <c r="L58" s="66"/>
@@ -35630,13 +35690,13 @@
       <c r="Y58" s="66"/>
     </row>
     <row r="59" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="153">
+      <c r="A59" s="155">
         <v>13</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="135" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="154" t="s">
+      <c r="C59" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D59" s="73">
@@ -35645,16 +35705,16 @@
       <c r="E59" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="F59" s="152" t="s">
+      <c r="F59" s="154" t="s">
         <v>305</v>
       </c>
-      <c r="G59" s="154" t="s">
+      <c r="G59" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H59" s="158" t="s">
+      <c r="H59" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="I59" s="163" t="s">
+      <c r="I59" s="165" t="s">
         <v>307</v>
       </c>
       <c r="J59" s="66"/>
@@ -35675,19 +35735,19 @@
       <c r="Y59" s="66"/>
     </row>
     <row r="60" spans="1:25" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="116"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="73">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
       <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
@@ -35706,13 +35766,13 @@
       <c r="Y60" s="66"/>
     </row>
     <row r="61" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="153">
+      <c r="A61" s="155">
         <v>14</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="135" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="154" t="s">
+      <c r="C61" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D61" s="73">
@@ -35721,16 +35781,16 @@
       <c r="E61" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="F61" s="152" t="s">
+      <c r="F61" s="154" t="s">
         <v>310</v>
       </c>
-      <c r="G61" s="154" t="s">
+      <c r="G61" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H61" s="158" t="s">
+      <c r="H61" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="157"/>
+      <c r="I61" s="159"/>
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
       <c r="L61" s="66"/>
@@ -35749,19 +35809,19 @@
       <c r="Y61" s="66"/>
     </row>
     <row r="62" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="115"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
+      <c r="A62" s="117"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="73">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
       <c r="J62" s="66"/>
       <c r="K62" s="66"/>
       <c r="L62" s="66"/>
@@ -35780,19 +35840,19 @@
       <c r="Y62" s="66"/>
     </row>
     <row r="63" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="115"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
+      <c r="A63" s="117"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
       <c r="D63" s="73">
         <v>3</v>
       </c>
       <c r="E63" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
       <c r="J63" s="66"/>
       <c r="K63" s="66"/>
       <c r="L63" s="66"/>
@@ -35811,19 +35871,19 @@
       <c r="Y63" s="66"/>
     </row>
     <row r="64" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="115"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="73">
         <v>4</v>
       </c>
       <c r="E64" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
       <c r="J64" s="66"/>
       <c r="K64" s="66"/>
       <c r="L64" s="66"/>
@@ -35842,19 +35902,19 @@
       <c r="Y64" s="66"/>
     </row>
     <row r="65" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="116"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
+      <c r="A65" s="118"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="73">
         <v>5</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
       <c r="J65" s="66"/>
       <c r="K65" s="66"/>
       <c r="L65" s="66"/>
@@ -35873,13 +35933,13 @@
       <c r="Y65" s="66"/>
     </row>
     <row r="66" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="153">
+      <c r="A66" s="155">
         <v>15</v>
       </c>
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="154" t="s">
         <v>314</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="156" t="s">
         <v>264</v>
       </c>
       <c r="D66" s="73">
@@ -35888,16 +35948,16 @@
       <c r="E66" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="152" t="s">
+      <c r="F66" s="154" t="s">
         <v>315</v>
       </c>
-      <c r="G66" s="154" t="s">
+      <c r="G66" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="H66" s="155" t="s">
+      <c r="H66" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="152" t="s">
+      <c r="I66" s="154" t="s">
         <v>316</v>
       </c>
       <c r="J66" s="66"/>
@@ -35918,19 +35978,19 @@
       <c r="Y66" s="66"/>
     </row>
     <row r="67" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="115"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="159">
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="161">
         <v>2</v>
       </c>
-      <c r="E67" s="152" t="s">
+      <c r="E67" s="154" t="s">
         <v>311</v>
       </c>
-      <c r="F67" s="115"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="115"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
       <c r="J67" s="66"/>
       <c r="K67" s="66"/>
       <c r="L67" s="66"/>
@@ -35949,15 +36009,15 @@
       <c r="Y67" s="66"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="115"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
       <c r="J68" s="66"/>
       <c r="K68" s="66"/>
       <c r="L68" s="66"/>
@@ -35976,15 +36036,15 @@
       <c r="Y68" s="66"/>
     </row>
     <row r="69" spans="1:25" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="116"/>
-      <c r="B69" s="116"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="116"/>
-      <c r="G69" s="116"/>
-      <c r="H69" s="116"/>
-      <c r="I69" s="116"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
       <c r="J69" s="66"/>
       <c r="K69" s="66"/>
       <c r="L69" s="66"/>
@@ -43674,7 +43734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -43693,12 +43753,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="177" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
       <c r="E1" s="77"/>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
@@ -43767,14 +43827,14 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="179" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -43797,12 +43857,12 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="178"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="180"/>
+      <c r="B5" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="165"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -43825,7 +43885,7 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="178"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="108" t="s">
         <v>323</v>
       </c>
@@ -43855,7 +43915,7 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="178"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="106" t="s">
         <v>324</v>
       </c>
@@ -43885,7 +43945,7 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="178"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="106" t="s">
         <v>325</v>
       </c>
@@ -43915,7 +43975,7 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="178"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="111"/>
       <c r="C9" s="104"/>
       <c r="D9" s="94"/>
@@ -43941,12 +44001,12 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="178"/>
-      <c r="B10" s="168" t="s">
+      <c r="A10" s="180"/>
+      <c r="B10" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="165"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -43969,7 +44029,7 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="178"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="106" t="s">
         <v>327</v>
       </c>
@@ -44001,7 +44061,7 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="178"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="112" t="s">
         <v>329</v>
       </c>
@@ -44033,7 +44093,7 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="178"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="106" t="s">
         <v>331</v>
       </c>
@@ -44063,7 +44123,7 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="178"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="112" t="s">
         <v>332</v>
       </c>
@@ -44095,14 +44155,14 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="178"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="112" t="s">
         <v>334</v>
       </c>
       <c r="C15" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="176" t="s">
+      <c r="D15" s="178" t="s">
         <v>335</v>
       </c>
       <c r="E15" s="2"/>
@@ -44127,14 +44187,14 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="178"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="112" t="s">
         <v>336</v>
       </c>
       <c r="C16" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -44157,14 +44217,14 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="178"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="113" t="s">
         <v>337</v>
       </c>
       <c r="C17" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -44187,7 +44247,7 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="178"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="113" t="s">
         <v>338</v>
       </c>
@@ -44219,7 +44279,7 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="178"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="113" t="s">
         <v>339</v>
       </c>
@@ -44251,7 +44311,7 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="178"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="104" t="s">
         <v>340</v>
       </c>
@@ -44281,7 +44341,7 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="178"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="104" t="s">
         <v>341</v>
       </c>
@@ -44311,7 +44371,7 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="178"/>
+      <c r="A22" s="180"/>
       <c r="B22" s="106" t="s">
         <v>324</v>
       </c>
@@ -44343,7 +44403,7 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="178"/>
+      <c r="A23" s="180"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
       <c r="D23" s="94"/>
@@ -44369,7 +44429,7 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="178"/>
+      <c r="A24" s="180"/>
       <c r="B24" s="107" t="s">
         <v>342</v>
       </c>
@@ -44397,7 +44457,7 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="178"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="104" t="s">
         <v>343</v>
       </c>
@@ -44427,7 +44487,7 @@
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="178"/>
+      <c r="A26" s="180"/>
       <c r="B26" s="106" t="s">
         <v>324</v>
       </c>
@@ -44459,7 +44519,7 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="178"/>
+      <c r="A27" s="180"/>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
       <c r="D27" s="94"/>
@@ -44485,12 +44545,12 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="178"/>
-      <c r="B28" s="164" t="s">
+      <c r="A28" s="180"/>
+      <c r="B28" s="166" t="s">
         <v>345</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="165"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -44513,12 +44573,12 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="178"/>
-      <c r="B29" s="166" t="s">
+      <c r="A29" s="180"/>
+      <c r="B29" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="165"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -44541,7 +44601,7 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="178"/>
+      <c r="A30" s="180"/>
       <c r="B30" s="108" t="s">
         <v>346</v>
       </c>
@@ -44571,7 +44631,7 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="178"/>
+      <c r="A31" s="180"/>
       <c r="B31" s="104" t="s">
         <v>347</v>
       </c>
@@ -44601,7 +44661,7 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="178"/>
+      <c r="A32" s="180"/>
       <c r="B32" s="106" t="s">
         <v>324</v>
       </c>
@@ -44631,7 +44691,7 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="178"/>
+      <c r="A33" s="180"/>
       <c r="B33" s="106" t="s">
         <v>348</v>
       </c>
@@ -44661,7 +44721,7 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="178"/>
+      <c r="A34" s="180"/>
       <c r="B34" s="111"/>
       <c r="C34" s="104"/>
       <c r="D34" s="94"/>
@@ -44687,12 +44747,12 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="178"/>
-      <c r="B35" s="168" t="s">
+      <c r="A35" s="180"/>
+      <c r="B35" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="165"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -44715,7 +44775,7 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="178"/>
+      <c r="A36" s="180"/>
       <c r="B36" s="112" t="s">
         <v>349</v>
       </c>
@@ -44747,7 +44807,7 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="178"/>
+      <c r="A37" s="180"/>
       <c r="B37" s="112" t="s">
         <v>351</v>
       </c>
@@ -44779,7 +44839,7 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="178"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="112" t="s">
         <v>331</v>
       </c>
@@ -44809,7 +44869,7 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="178"/>
+      <c r="A39" s="180"/>
       <c r="B39" s="112" t="s">
         <v>332</v>
       </c>
@@ -44841,7 +44901,7 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="178"/>
+      <c r="A40" s="180"/>
       <c r="B40" s="112" t="s">
         <v>354</v>
       </c>
@@ -44873,7 +44933,7 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="178"/>
+      <c r="A41" s="180"/>
       <c r="B41" s="113" t="s">
         <v>355</v>
       </c>
@@ -44905,7 +44965,7 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="178"/>
+      <c r="A42" s="180"/>
       <c r="B42" s="113" t="s">
         <v>356</v>
       </c>
@@ -44937,7 +44997,7 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="178"/>
+      <c r="A43" s="180"/>
       <c r="B43" s="104" t="s">
         <v>357</v>
       </c>
@@ -44967,7 +45027,7 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="178"/>
+      <c r="A44" s="180"/>
       <c r="B44" s="106" t="s">
         <v>324</v>
       </c>
@@ -44999,7 +45059,7 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="178"/>
+      <c r="A45" s="180"/>
       <c r="B45" s="104"/>
       <c r="C45" s="104"/>
       <c r="D45" s="94"/>
@@ -45025,12 +45085,12 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="178"/>
-      <c r="B46" s="164" t="s">
+      <c r="A46" s="180"/>
+      <c r="B46" s="166" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="167"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -45053,12 +45113,12 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="178"/>
-      <c r="B47" s="166" t="s">
+      <c r="A47" s="180"/>
+      <c r="B47" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="165"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -45081,7 +45141,7 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="178"/>
+      <c r="A48" s="180"/>
       <c r="B48" s="108" t="s">
         <v>359</v>
       </c>
@@ -45111,7 +45171,7 @@
       <c r="X48" s="2"/>
     </row>
     <row r="49" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="178"/>
+      <c r="A49" s="180"/>
       <c r="B49" s="108" t="s">
         <v>360</v>
       </c>
@@ -45141,7 +45201,7 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="178"/>
+      <c r="A50" s="180"/>
       <c r="B50" s="104" t="s">
         <v>361</v>
       </c>
@@ -45171,7 +45231,7 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="178"/>
+      <c r="A51" s="180"/>
       <c r="B51" s="106" t="s">
         <v>324</v>
       </c>
@@ -45201,7 +45261,7 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="178"/>
+      <c r="A52" s="180"/>
       <c r="B52" s="106" t="s">
         <v>362</v>
       </c>
@@ -45231,7 +45291,7 @@
       <c r="X52" s="2"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="178"/>
+      <c r="A53" s="180"/>
       <c r="B53" s="111"/>
       <c r="C53" s="93"/>
       <c r="D53" s="94"/>
@@ -45257,12 +45317,12 @@
       <c r="X53" s="2"/>
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="178"/>
-      <c r="B54" s="168" t="s">
+      <c r="A54" s="180"/>
+      <c r="B54" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="167"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="167"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -45285,7 +45345,7 @@
       <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="178"/>
+      <c r="A55" s="180"/>
       <c r="B55" s="112" t="s">
         <v>329</v>
       </c>
@@ -45317,7 +45377,7 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="178"/>
+      <c r="A56" s="180"/>
       <c r="B56" s="112" t="s">
         <v>331</v>
       </c>
@@ -45347,7 +45407,7 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="178"/>
+      <c r="A57" s="180"/>
       <c r="B57" s="112" t="s">
         <v>332</v>
       </c>
@@ -45379,14 +45439,14 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="178"/>
+      <c r="A58" s="180"/>
       <c r="B58" s="112" t="s">
         <v>334</v>
       </c>
       <c r="C58" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="178" t="s">
         <v>365</v>
       </c>
       <c r="E58" s="2"/>
@@ -45411,14 +45471,14 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="178"/>
+      <c r="A59" s="180"/>
       <c r="B59" s="112" t="s">
         <v>336</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="165"/>
+      <c r="D59" s="167"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -45441,14 +45501,14 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="178"/>
+      <c r="A60" s="180"/>
       <c r="B60" s="113" t="s">
         <v>366</v>
       </c>
       <c r="C60" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="165"/>
+      <c r="D60" s="167"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -45471,7 +45531,7 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="178"/>
+      <c r="A61" s="180"/>
       <c r="B61" s="113" t="s">
         <v>367</v>
       </c>
@@ -45503,7 +45563,7 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="178"/>
+      <c r="A62" s="180"/>
       <c r="B62" s="113" t="s">
         <v>368</v>
       </c>
@@ -45535,7 +45595,7 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="178"/>
+      <c r="A63" s="180"/>
       <c r="B63" s="113" t="s">
         <v>369</v>
       </c>
@@ -45565,7 +45625,7 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="178"/>
+      <c r="A64" s="180"/>
       <c r="B64" s="106" t="s">
         <v>324</v>
       </c>
@@ -45597,7 +45657,7 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="178"/>
+      <c r="A65" s="180"/>
       <c r="B65" s="104"/>
       <c r="C65" s="104"/>
       <c r="D65" s="94"/>
@@ -45623,12 +45683,12 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="178"/>
-      <c r="B66" s="164" t="s">
+      <c r="A66" s="180"/>
+      <c r="B66" s="166" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="167"/>
-      <c r="D66" s="165"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -45651,12 +45711,12 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="178"/>
-      <c r="B67" s="166" t="s">
+      <c r="A67" s="180"/>
+      <c r="B67" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="167"/>
-      <c r="D67" s="165"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -45679,7 +45739,7 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="178"/>
+      <c r="A68" s="180"/>
       <c r="B68" s="104" t="s">
         <v>371</v>
       </c>
@@ -45709,7 +45769,7 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="178"/>
+      <c r="A69" s="180"/>
       <c r="B69" s="104" t="s">
         <v>372</v>
       </c>
@@ -45739,7 +45799,7 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="178"/>
+      <c r="A70" s="180"/>
       <c r="B70" s="106" t="s">
         <v>324</v>
       </c>
@@ -45769,7 +45829,7 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="178"/>
+      <c r="A71" s="180"/>
       <c r="B71" s="106" t="s">
         <v>373</v>
       </c>
@@ -45799,7 +45859,7 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="178"/>
+      <c r="A72" s="180"/>
       <c r="B72" s="104"/>
       <c r="C72" s="104"/>
       <c r="D72" s="94"/>
@@ -45825,12 +45885,12 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="178"/>
-      <c r="B73" s="168" t="s">
+      <c r="A73" s="180"/>
+      <c r="B73" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="C73" s="167"/>
-      <c r="D73" s="165"/>
+      <c r="C73" s="169"/>
+      <c r="D73" s="167"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -45853,7 +45913,7 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="178"/>
+      <c r="A74" s="180"/>
       <c r="B74" s="104" t="s">
         <v>374</v>
       </c>
@@ -45883,7 +45943,7 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="178"/>
+      <c r="A75" s="180"/>
       <c r="B75" s="104" t="s">
         <v>375</v>
       </c>
@@ -45913,7 +45973,7 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="178"/>
+      <c r="A76" s="180"/>
       <c r="B76" s="104" t="s">
         <v>376</v>
       </c>
@@ -45943,7 +46003,7 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="178"/>
+      <c r="A77" s="180"/>
       <c r="B77" s="113" t="s">
         <v>377</v>
       </c>
@@ -45973,7 +46033,7 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="178"/>
+      <c r="A78" s="180"/>
       <c r="B78" s="104" t="s">
         <v>378</v>
       </c>
@@ -46003,7 +46063,7 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="178"/>
+      <c r="A79" s="180"/>
       <c r="B79" s="106" t="s">
         <v>324</v>
       </c>
@@ -46033,7 +46093,7 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="178"/>
+      <c r="A80" s="180"/>
       <c r="B80" s="106"/>
       <c r="C80" s="104"/>
       <c r="D80" s="94"/>
@@ -46059,14 +46119,14 @@
       <c r="X80" s="2"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="181" t="s">
+      <c r="A81" s="183" t="s">
         <v>379</v>
       </c>
-      <c r="B81" s="169" t="s">
+      <c r="B81" s="171" t="s">
         <v>380</v>
       </c>
-      <c r="C81" s="170"/>
-      <c r="D81" s="162"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="164"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -46089,12 +46149,12 @@
       <c r="X81" s="2"/>
     </row>
     <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="165"/>
-      <c r="B82" s="166" t="s">
+      <c r="A82" s="167"/>
+      <c r="B82" s="168" t="s">
         <v>381</v>
       </c>
-      <c r="C82" s="167"/>
-      <c r="D82" s="165"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -46117,7 +46177,7 @@
       <c r="X82" s="2"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="165"/>
+      <c r="A83" s="167"/>
       <c r="B83" s="92" t="s">
         <v>382</v>
       </c>
@@ -46147,7 +46207,7 @@
       <c r="X83" s="2"/>
     </row>
     <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="165"/>
+      <c r="A84" s="167"/>
       <c r="B84" s="95" t="s">
         <v>324</v>
       </c>
@@ -46177,7 +46237,7 @@
       <c r="X84" s="2"/>
     </row>
     <row r="85" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="165"/>
+      <c r="A85" s="167"/>
       <c r="B85" s="98" t="s">
         <v>383</v>
       </c>
@@ -46207,7 +46267,7 @@
       <c r="X85" s="2"/>
     </row>
     <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="165"/>
+      <c r="A86" s="167"/>
       <c r="B86" s="100" t="s">
         <v>384</v>
       </c>
@@ -46239,7 +46299,7 @@
       <c r="X86" s="2"/>
     </row>
     <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="165"/>
+      <c r="A87" s="167"/>
       <c r="B87" s="103"/>
       <c r="C87" s="103"/>
       <c r="D87" s="97"/>
@@ -46265,12 +46325,12 @@
       <c r="X87" s="2"/>
     </row>
     <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="165"/>
-      <c r="B88" s="171" t="s">
+      <c r="A88" s="167"/>
+      <c r="B88" s="173" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="172"/>
-      <c r="D88" s="173"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="175"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -46293,14 +46353,14 @@
       <c r="X88" s="2"/>
     </row>
     <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="165"/>
+      <c r="A89" s="167"/>
       <c r="B89" s="100" t="s">
         <v>386</v>
       </c>
       <c r="C89" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="174" t="s">
+      <c r="D89" s="176" t="s">
         <v>387</v>
       </c>
       <c r="E89" s="2"/>
@@ -46325,14 +46385,14 @@
       <c r="X89" s="2"/>
     </row>
     <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="165"/>
+      <c r="A90" s="167"/>
       <c r="B90" s="95" t="s">
         <v>324</v>
       </c>
       <c r="C90" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="173"/>
+      <c r="D90" s="175"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -46355,7 +46415,7 @@
       <c r="X90" s="2"/>
     </row>
     <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="165"/>
+      <c r="A91" s="167"/>
       <c r="B91" s="103"/>
       <c r="C91" s="103"/>
       <c r="D91" s="97"/>
@@ -46381,12 +46441,12 @@
       <c r="X91" s="2"/>
     </row>
     <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="182"/>
-      <c r="B92" s="168" t="s">
+      <c r="A92" s="184"/>
+      <c r="B92" s="170" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="167"/>
-      <c r="D92" s="165"/>
+      <c r="C92" s="169"/>
+      <c r="D92" s="167"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -46409,7 +46469,7 @@
       <c r="X92" s="2"/>
     </row>
     <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="182"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="104" t="s">
         <v>389</v>
       </c>
@@ -46439,7 +46499,7 @@
       <c r="X93" s="2"/>
     </row>
     <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="182"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="104" t="s">
         <v>390</v>
       </c>
@@ -46469,7 +46529,7 @@
       <c r="X94" s="2"/>
     </row>
     <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="182"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="104" t="s">
         <v>391</v>
       </c>
@@ -46499,14 +46559,14 @@
       <c r="X95" s="2"/>
     </row>
     <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="182"/>
+      <c r="A96" s="184"/>
       <c r="B96" s="104" t="s">
         <v>392</v>
       </c>
       <c r="C96" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="176" t="s">
+      <c r="D96" s="178" t="s">
         <v>393</v>
       </c>
       <c r="E96" s="2"/>
@@ -46531,14 +46591,14 @@
       <c r="X96" s="2"/>
     </row>
     <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="182"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="104" t="s">
         <v>394</v>
       </c>
       <c r="C97" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="165"/>
+      <c r="D97" s="167"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -46561,14 +46621,14 @@
       <c r="X97" s="2"/>
     </row>
     <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="182"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="104" t="s">
         <v>395</v>
       </c>
       <c r="C98" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="165"/>
+      <c r="D98" s="167"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -46591,7 +46651,7 @@
       <c r="X98" s="2"/>
     </row>
     <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="182"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="104" t="s">
         <v>396</v>
       </c>
@@ -46621,7 +46681,7 @@
       <c r="X99" s="2"/>
     </row>
     <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="182"/>
+      <c r="A100" s="184"/>
       <c r="B100" s="106" t="s">
         <v>324</v>
       </c>
@@ -46653,14 +46713,14 @@
       <c r="X100" s="2"/>
     </row>
     <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="179" t="s">
+      <c r="A101" s="181" t="s">
         <v>397</v>
       </c>
-      <c r="B101" s="164" t="s">
+      <c r="B101" s="166" t="s">
         <v>398</v>
       </c>
-      <c r="C101" s="165"/>
-      <c r="D101" s="165"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -46683,12 +46743,12 @@
       <c r="X101" s="2"/>
     </row>
     <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="178"/>
-      <c r="B102" s="166" t="s">
+      <c r="A102" s="180"/>
+      <c r="B102" s="168" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="167"/>
-      <c r="D102" s="165"/>
+      <c r="C102" s="169"/>
+      <c r="D102" s="167"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -46711,7 +46771,7 @@
       <c r="X102" s="2"/>
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="178"/>
+      <c r="A103" s="180"/>
       <c r="B103" s="104" t="s">
         <v>399</v>
       </c>
@@ -46741,7 +46801,7 @@
       <c r="X103" s="2"/>
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="178"/>
+      <c r="A104" s="180"/>
       <c r="B104" s="106" t="s">
         <v>324</v>
       </c>
@@ -46771,7 +46831,7 @@
       <c r="X104" s="2"/>
     </row>
     <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="178"/>
+      <c r="A105" s="180"/>
       <c r="B105" s="92" t="s">
         <v>400</v>
       </c>
@@ -46801,7 +46861,7 @@
       <c r="X105" s="2"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="178"/>
+      <c r="A106" s="180"/>
       <c r="B106" s="104"/>
       <c r="C106" s="104"/>
       <c r="D106" s="94"/>
@@ -46827,7 +46887,7 @@
       <c r="X106" s="2"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="178"/>
+      <c r="A107" s="180"/>
       <c r="B107" s="107" t="s">
         <v>326</v>
       </c>
@@ -46855,7 +46915,7 @@
       <c r="X107" s="2"/>
     </row>
     <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="178"/>
+      <c r="A108" s="180"/>
       <c r="B108" s="92" t="s">
         <v>401</v>
       </c>
@@ -46885,7 +46945,7 @@
       <c r="X108" s="2"/>
     </row>
     <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="178"/>
+      <c r="A109" s="180"/>
       <c r="B109" s="106" t="s">
         <v>324</v>
       </c>
@@ -46915,7 +46975,7 @@
       <c r="X109" s="2"/>
     </row>
     <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="178"/>
+      <c r="A110" s="180"/>
       <c r="B110" s="104"/>
       <c r="C110" s="104"/>
       <c r="D110" s="94"/>
@@ -46941,7 +47001,7 @@
       <c r="X110" s="2"/>
     </row>
     <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="178"/>
+      <c r="A111" s="180"/>
       <c r="B111" s="107" t="s">
         <v>388</v>
       </c>
@@ -46969,7 +47029,7 @@
       <c r="X111" s="2"/>
     </row>
     <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="178"/>
+      <c r="A112" s="180"/>
       <c r="B112" s="104" t="s">
         <v>402</v>
       </c>
@@ -46999,7 +47059,7 @@
       <c r="X112" s="2"/>
     </row>
     <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="178"/>
+      <c r="A113" s="180"/>
       <c r="B113" s="104" t="s">
         <v>403</v>
       </c>
@@ -47031,7 +47091,7 @@
       <c r="X113" s="2"/>
     </row>
     <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="178"/>
+      <c r="A114" s="180"/>
       <c r="B114" s="104" t="s">
         <v>405</v>
       </c>
@@ -47061,14 +47121,14 @@
       <c r="X114" s="2"/>
     </row>
     <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="178"/>
+      <c r="A115" s="180"/>
       <c r="B115" s="104" t="s">
         <v>392</v>
       </c>
       <c r="C115" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="176" t="s">
+      <c r="D115" s="178" t="s">
         <v>404</v>
       </c>
       <c r="E115" s="2"/>
@@ -47093,14 +47153,14 @@
       <c r="X115" s="2"/>
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="178"/>
+      <c r="A116" s="180"/>
       <c r="B116" s="104" t="s">
         <v>406</v>
       </c>
       <c r="C116" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="165"/>
+      <c r="D116" s="167"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -47123,14 +47183,14 @@
       <c r="X116" s="2"/>
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="178"/>
+      <c r="A117" s="180"/>
       <c r="B117" s="104" t="s">
         <v>395</v>
       </c>
       <c r="C117" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="165"/>
+      <c r="D117" s="167"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -47153,7 +47213,7 @@
       <c r="X117" s="2"/>
     </row>
     <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="178"/>
+      <c r="A118" s="180"/>
       <c r="B118" s="104" t="s">
         <v>407</v>
       </c>
@@ -47183,7 +47243,7 @@
       <c r="X118" s="2"/>
     </row>
     <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="180"/>
+      <c r="A119" s="182"/>
       <c r="B119" s="106" t="s">
         <v>324</v>
       </c>
